--- a/Drawed_50.xlsx
+++ b/Drawed_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>panda30163@gmail.com</t>
+          <t>bradley8862@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>陳璿元</t>
+          <t>陳嘉暐</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b09207021</t>
+          <t>b10705017</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>b09207021@ntu.edu.tw</t>
+          <t>b10705017@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,22 +500,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b0972439892@gmail.com</t>
+          <t>r12521606@caece.net</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黃仲平</t>
+          <t>陳弘翊</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>b09302120</t>
+          <t>r12521606</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>b09302120@ntu.edu.tw</t>
+          <t>R12521606@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,22 +532,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>r12521606@caece.net</t>
+          <t>pei.fish1130@gmail.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陳弘翊</t>
+          <t>沈鈺珮</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>r12521606</t>
+          <t>b12607041</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R12521606@ntu.edu.tw</t>
+          <t>b12607041@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -564,22 +564,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dong.joseph7@gmail.com</t>
+          <t>petereric933@gmail.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>張景華</t>
+          <t>張漢棠</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>b09505021</t>
+          <t>b08702035</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>b09505021@ntu.edu.tw</t>
+          <t>b08702035@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,22 +596,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b11703063@g.ntu.edu.tw</t>
+          <t>lychen10114@gmail.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鄭凱元</t>
+          <t>陳亮元</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>b11703063</t>
+          <t>b10703107</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>b11703063@ntu.edu.tw</t>
+          <t>B10703107@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,22 +628,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xitungfeng1128@gmail.com</t>
+          <t>b10208016@g.ntu.edu.tw</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>馮璽庭</t>
+          <t>連彥博</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>b11a01266</t>
+          <t>b10208016</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B11a01266@ntu.edu.tw</t>
+          <t>b10208016@g.ntu.edu.tw</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -660,22 +660,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b11705011_im@ntu.im</t>
+          <t>900125kevin@gmail.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>林峻琦</t>
+          <t>王柏權</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>b11705011</t>
+          <t>r12525075</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>b11705011@ntu.edu.tw</t>
+          <t>r12525075@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -692,22 +692,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>paulwang102003@gmail.com</t>
+          <t>song105293@gmail.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>王智鵬</t>
+          <t>宋凱翔</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>r12723057</t>
+          <t>b11705026</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>r12723057@ntu.edu.tw</t>
+          <t>b11705026@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -724,22 +724,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>b09701214@g.ntu.edu.tw</t>
+          <t>billcheang20010723ntu@gmail.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>林冠宏</t>
+          <t>鄭國彬</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>b09701214</t>
+          <t>r12522818</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>b09701214@ntu.edu.tw</t>
+          <t>R12522818@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jessica08311226@gmail.com</t>
+          <t>r12524147@g.ntu.edu.tw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>周芃妏</t>
+          <t>陳翰德</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>b11502134</t>
+          <t>r12524147</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B11502134@ntu.edu.tw</t>
+          <t>r12524147@ntu.edu.tw</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -780,6 +780,1286 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>willywilly0721@gmail.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>涂哲瑋</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>b10303133</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>b10303133@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>smellpeggy0504@gmail.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>徐一方</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>r11625055</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>r11625055@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tommywang0807@gmail.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>王少甫</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>b10505040</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>b10505040@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pelehsu0527@gmail.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>許菁芸</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>b10607009</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B10607009@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>davidck310@gmail.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>葉睿展</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>b10204003</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B10204003@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evazhang0110@gmail.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>張靖</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>b12613010</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>b12613010@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>leeann930717@gmail.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>渠立安</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>b11502154</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>b11502154@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>jordan76967167@gmail.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>黎家愷</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>r12546021</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>r12546021@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kevin.special75@gmail.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>彭晨瑋</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>b09103050</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>b09103050@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>yvon50825@gmail.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>楊翔安</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>b11505008</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>B11505008@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>teresa920626@gmail.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>謝宛軒</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>b10705022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>b10705022@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b11705060@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>盧沛宏</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>b11705060</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>b11705060@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>201510525winner@gmail.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>周軒宇</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>r12h41016</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>R12h41016@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>alexischeng20@gmail.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>鄭楷蓁</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>b09705022</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>b09705022@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>b11703063@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>鄭凱元</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>b11703063</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>b11703063@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>brian111168@gmail.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>張宸瑋</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>r12522730</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>R12522730@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>s1015518@gmail.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>楊艾潔</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>b10702009</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>b10702009@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1035616260c@gmail.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>陳潤翔</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>b09303056</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>b09303056@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>b11a01356@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>劉家樺</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>b11a01356</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>b11a01356@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ckmarkoo0706@gmail.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>張暐翔</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>b08303098</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>b08303098@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>elianahsu89@gmail.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>徐滋</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>r12631032</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>r12631032@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>justinlin1111@gmail.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>林澔辰</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>b11505025</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>b11505025@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>max84517@gmail.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>林彧龍</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>r12741028</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>r12741028@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>cses504727@gmail.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>蔡知諺</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>b11209014</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>b11209014@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>liweichengterry@gmail.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>鄭力瑋</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>b08703129</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>b08703129@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>zzuu89714@gmail.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>黃芝儀</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>r11323048</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>R11323048@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fteam5206@gmail.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>陳昱睿</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>b11705031</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>b11705031@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>okvs747@gmail.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>趙新元</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>b10505057</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>B10505057@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>danielhsieh0217@gmail.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>謝昕佑</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>b10704018</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>b10704018@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>alexko4real@gmail.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>柯福恩</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>b11h04011</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>b11h04011@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30414ray@gmail.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>周鼎睿</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>b09702049</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>b09702049@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>a0935710971@gmail.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>邱瑞彬</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>r11521224</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>r11521224@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>b09702018@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>鄭惠文</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>b09702018</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">b09702018@ntu.edu.tw </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>aaa0925891005@gmail.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>鄭絜元</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>b09502002</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>b09502002@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wenyingsong131@gmail.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>宋玟穎</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>b11701126</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>B11701126@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>taiwan70503@gmail.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>李承憲</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>b09201036</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>B09201036@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>b11703097@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>許少龍</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>b11703097</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>b11703097@g.ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>daniel.haoen@gmail.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>謝浩恩</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>b09702046</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>B09702046@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kevin2002209@gmail.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>魏凱毫</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>b10705058</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>b10705058@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>我要加簽</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>anniehongtaa@gmail.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>洪琪恩</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>b09703039</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>b09703039@ntu.edu.tw</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>我要加簽</t>
         </is>
